--- a/数据整理/stocks/A股/上证主板/603301-振德医疗.xlsx
+++ b/数据整理/stocks/A股/上证主板/603301-振德医疗.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>99.05</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.65</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>
@@ -525,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,15 +566,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -576,15 +606,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>99.02</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.06</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -604,15 +644,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1.02</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>2</v>
       </c>
     </row>
@@ -632,15 +682,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>94.01</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1.02</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>2</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603301-振德医疗.xlsx
+++ b/数据整理/stocks/A股/上证主板/603301-振德医疗.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -707,4 +708,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010709</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010710</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603301-振德医疗.xlsx
+++ b/数据整理/stocks/A股/上证主板/603301-振德医疗.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -840,4 +841,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603301-振德医疗.xlsx
+++ b/数据整理/stocks/A股/上证主板/603301-振德医疗.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -849,7 +850,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -860,17 +861,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -880,14 +901,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.08</v>
+          <t>970009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>方正证券金立方一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6308</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -896,14 +939,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.03</v>
+          <t>970010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>方正证券金立方一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6288</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -912,13 +977,553 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>012260</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发睿明优质企业混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>50.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4248</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010709</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3925</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010710</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2006</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010457</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发睿鑫混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>72.84</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1628</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012358</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.78</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1426</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519673</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银河康乐股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1336</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000523</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国投瑞银医疗保健行业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0948</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003284</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中邮医药健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>80.23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>162717</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发再融资主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>42.99</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012261</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发睿明优质企业混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>50.58</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001563</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华富健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012359</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>82.78</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.02</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603301-振德医疗.xlsx
+++ b/数据整理/stocks/A股/上证主板/603301-振德医疗.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1438,7 +1439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1449,17 +1450,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1469,14 +1490,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.92</v>
+          <t>012260</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发睿明优质企业混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>61.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3506</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1485,14 +1528,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.08</v>
+          <t>519673</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银河康乐股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1026</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1501,14 +1566,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.03</v>
+          <t>011845</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时周期优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1517,13 +1604,341 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>014212</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时研究优享混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>60.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012261</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发睿明优质企业混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>61.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>217021</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商优势企业混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>69.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014213</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时研究优享混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>60.01</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014157</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰君安创新医药混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011846</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时周期优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.75</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.02</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603301-振德医疗.xlsx
+++ b/数据整理/stocks/A股/上证主板/603301-振德医疗.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1837,7 +1838,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1848,17 +1849,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1868,14 +1889,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.64</v>
+          <t>012260</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发睿明优质企业混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>66.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3733</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1884,14 +1927,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.92</v>
+          <t>519673</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银河康乐股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1231</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1900,14 +1965,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.08</v>
+          <t>002662</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源沪港深大消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1916,14 +2003,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.03</v>
+          <t>012261</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发睿明优质企业混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>66.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1932,13 +2041,205 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>002663</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源沪港深大消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014157</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰君安创新医药混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.69</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.02</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603301-振德医疗.xlsx
+++ b/数据整理/stocks/A股/上证主板/603301-振德医疗.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,91 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>512190</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>浙商汇金中证浙江凤凰行动50ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.05</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0230</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -550,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -601,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>512190</t>
+          <t>012260</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+          <t>广发睿明优质企业混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>12.61</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.02</t>
+          <t>66.98</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0135</t>
+          <t>0.3733</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -639,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004194</t>
+          <t>519673</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>招商中证1000指数增强A</t>
+          <t>银河康乐股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.01</t>
+          <t>92.55</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0114</t>
+          <t>0.1231</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -677,36 +715,150 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004195</t>
+          <t>002662</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>招商中证1000指数增强C</t>
+          <t>前海开源沪港深大消费主题混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.01</t>
+          <t>89.89</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>5.72</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0055</t>
+          <t>0.0572</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012261</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发睿明优质企业混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>66.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002663</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源沪港深大消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014157</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰君安创新医药混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.69</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -720,7 +872,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -741,7 +893,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -771,36 +923,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010709</t>
+          <t>012260</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>安信医药健康主题股票A</t>
+          <t>广发睿明优质企业混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>12.09</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.24</t>
+          <t>61.24</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0658</t>
+          <t>0.3506</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -809,35 +961,301 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010710</t>
+          <t>519673</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>安信医药健康主题股票C</t>
+          <t>银河康乐股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.24</t>
+          <t>92.35</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0108</t>
+          <t>0.1026</t>
         </is>
       </c>
       <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011845</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时周期优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014212</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时研究优享混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>60.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012261</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发睿明优质企业混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>61.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>217021</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商优势企业混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>69.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014213</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时研究优享混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>60.01</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014157</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰君安创新医药混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011846</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时周期优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.75</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1440,7 +1858,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1461,7 +1879,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1491,36 +1909,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>012260</t>
+          <t>010709</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发睿明优质企业混合型证券投资基金A</t>
+          <t>安信医药健康主题股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.09</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>61.24</t>
+          <t>90.24</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3506</t>
+          <t>0.0658</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1529,301 +1947,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>519673</t>
+          <t>010710</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>银河康乐股票</t>
+          <t>安信医药健康主题股票C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.35</t>
+          <t>90.24</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1026</t>
+          <t>0.0108</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>011845</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>博时周期优选混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.36</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>86.75</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0668</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>014212</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>博时研究优享混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>60.01</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0520</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>012261</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>广发睿明优质企业混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>61.24</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0244</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>217021</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>招商优势企业混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>69.72</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0181</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>014213</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>博时研究优享混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>60.01</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0106</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>014157</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>国泰君安创新医药混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>79.44</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0095</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>011846</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>博时周期优选混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>86.75</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0020</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1838,7 +1990,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1859,7 +2011,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1889,36 +2041,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>012260</t>
+          <t>512190</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发睿明优质企业混合型证券投资基金A</t>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.61</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>66.98</t>
+          <t>99.02</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3733</t>
+          <t>0.0135</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1927,36 +2079,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>519673</t>
+          <t>004194</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>银河康乐股票</t>
+          <t>招商中证1000指数增强A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.55</t>
+          <t>94.01</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1231</t>
+          <t>0.0114</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1965,150 +2117,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002662</t>
+          <t>004195</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源沪港深大消费主题混合A</t>
+          <t>招商中证1000指数增强C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.89</t>
+          <t>94.01</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.72</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0572</t>
+          <t>0.0055</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>012261</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发睿明优质企业混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>66.98</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0258</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>002663</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>前海开源沪港深大消费主题混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>89.89</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.72</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0206</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>014157</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>国泰君安创新医药混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>78.69</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0100</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2122,128 +2160,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.92</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.02</v>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603301-振德医疗.xlsx
+++ b/数据整理/stocks/A股/上证主板/603301-振德医疗.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D2" t="n">
-        <v>0.61</v>
+        <v>4.16</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.64</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>2.92</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>0.08</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -583,6 +600,1164 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011230</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6610</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011229</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6415</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010709</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6255</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010710</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5341</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011335</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银河医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4349</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012260</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发睿明优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>64.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3650</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000780</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.50</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2567</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000339</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长城医疗保健混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1888</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519673</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银河康乐股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0873</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001060</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>80.76</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002662</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源沪港深大消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.73</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000524</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>上投摩根民生需求股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002663</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>前海开源沪港深大消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.73</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002515</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商丰益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>39.36</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012261</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发睿明优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>64.35</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014212</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时研究优享混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>79.50</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>016018</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银河康乐股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002514</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商丰益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>39.36</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007133</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001482</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>上投摩根新兴服务股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>80.81</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014157</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国泰君安创新医药混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>79.28</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>015201</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>创金合信动态平衡混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>65.33</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>015200</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>创金合信动态平衡混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>65.33</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>015562</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长城医疗保健混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>015655</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富荣医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>82.11</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007134</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>014213</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时研究优享混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>79.50</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>015666</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>银河医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>015656</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>富荣医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>82.11</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -866,7 +2041,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1264,7 +2439,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1852,7 +3027,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1984,7 +3159,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2154,7 +3329,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603301-振德医疗.xlsx
+++ b/数据整理/stocks/A股/上证主板/603301-振德医疗.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>4.16</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D3" t="n">
-        <v>0.61</v>
+        <v>4.16</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>0.64</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>2.92</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>0.08</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -600,6 +617,630 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011335</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3763</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012260</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发睿明优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>65.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2717</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000780</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2217</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519673</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银河康乐股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1124</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002515</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商丰益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>41.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012261</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发睿明优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>65.70</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002514</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商丰益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>41.84</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010503</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商稳兴混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>28.39</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009170</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009169</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>016018</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银河康乐股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014692</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中加量化研选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>74.39</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>015666</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银河医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014691</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中加量化研选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>74.39</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010504</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商稳兴混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>28.39</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1757,7 +2398,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2041,7 +2682,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2439,7 +3080,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3027,7 +3668,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3159,7 +3800,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3329,7 +3970,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
